--- a/melas_kss_cpeo/namdc-metadata2.xlsx
+++ b/melas_kss_cpeo/namdc-metadata2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clareau/Dropbox (Personal)/pearson/pearson_syndrome/melas_kss-cpeo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clareau/Dropbox (Personal)/grind/pearson/pearson_syndrome/melas_kss_cpeo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E369350-5643-7F4E-B957-055D3F7DDD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5301E08A-61A7-6646-BF2E-3E8886601E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20520" xr2:uid="{E2CE600B-50B0-3C44-BA3D-0E7A726EE439}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>7k cells</t>
   </si>
   <si>
-    <t>del8482-13447; common delection</t>
-  </si>
-  <si>
     <t>del7982-15496</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>del8687-15103anddel5924-6450</t>
+  </si>
+  <si>
+    <t>del8482-13447; common deletion</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,10 +478,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -495,16 +495,16 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <f>15103-8687</f>
@@ -528,10 +528,10 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <f>13447-8482</f>
@@ -555,10 +555,10 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
       </c>
       <c r="H4">
         <f>15496-7982</f>
